--- a/Code/Results/Cases/Case_2_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9957026490755444</v>
+        <v>1.022667776422923</v>
       </c>
       <c r="D2">
-        <v>1.018286053330325</v>
+        <v>1.032581945477635</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.0177581656606</v>
+        <v>1.039115856583574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045796534167643</v>
+        <v>1.031330526671931</v>
       </c>
       <c r="J2">
-        <v>1.018012657317253</v>
+        <v>1.027852322274696</v>
       </c>
       <c r="K2">
-        <v>1.029496379552227</v>
+        <v>1.035386761362304</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.028975522833862</v>
+        <v>1.041901960711133</v>
       </c>
       <c r="N2">
-        <v>1.010081635696464</v>
+        <v>1.013362350471271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9998211545810159</v>
+        <v>1.02352424478629</v>
       </c>
       <c r="D3">
-        <v>1.021517782971028</v>
+        <v>1.033262072007751</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.021673498127661</v>
+        <v>1.039977413955828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046940621512368</v>
+        <v>1.031476498206074</v>
       </c>
       <c r="J3">
-        <v>1.020316696290602</v>
+        <v>1.028347421440468</v>
       </c>
       <c r="K3">
-        <v>1.031882548079236</v>
+        <v>1.035876034291458</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.03203637413767</v>
+        <v>1.042573534941571</v>
       </c>
       <c r="N3">
-        <v>1.010840550158447</v>
+        <v>1.013525295867261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002431101613587</v>
+        <v>1.024078554996472</v>
       </c>
       <c r="D4">
-        <v>1.023565036581486</v>
+        <v>1.033701806534017</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.02415769790665</v>
+        <v>1.040535090966167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047649928942431</v>
+        <v>1.031569008283956</v>
       </c>
       <c r="J4">
-        <v>1.021772823343606</v>
+        <v>1.02866727219305</v>
       </c>
       <c r="K4">
-        <v>1.033387134099962</v>
+        <v>1.036191597054664</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.033973048017011</v>
+        <v>1.043007640725988</v>
       </c>
       <c r="N4">
-        <v>1.011320187411684</v>
+        <v>1.0136305568504</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003515584090036</v>
+        <v>1.02431161392079</v>
       </c>
       <c r="D5">
-        <v>1.024415480873692</v>
+        <v>1.033886584744381</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.025190614133593</v>
+        <v>1.040769582560537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047940832156066</v>
+        <v>1.031607433417288</v>
       </c>
       <c r="J5">
-        <v>1.022376887876842</v>
+        <v>1.028801613859652</v>
       </c>
       <c r="K5">
-        <v>1.034010455499257</v>
+        <v>1.036324011800248</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.034777003470956</v>
+        <v>1.043190030096137</v>
       </c>
       <c r="N5">
-        <v>1.011519163652626</v>
+        <v>1.013674766146051</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003696938497199</v>
+        <v>1.024350747079497</v>
       </c>
       <c r="D6">
-        <v>1.024557682919389</v>
+        <v>1.033917604714873</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.025363384449494</v>
+        <v>1.040808957271178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047989252277334</v>
+        <v>1.031613857807952</v>
       </c>
       <c r="J6">
-        <v>1.022477844847551</v>
+        <v>1.028824163136199</v>
       </c>
       <c r="K6">
-        <v>1.034114580552881</v>
+        <v>1.036346230245317</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.034911399804003</v>
+        <v>1.043220647654871</v>
       </c>
       <c r="N6">
-        <v>1.011552418530733</v>
+        <v>1.013682186582415</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002445642025635</v>
+        <v>1.024081669037139</v>
       </c>
       <c r="D7">
-        <v>1.023576440051315</v>
+        <v>1.033704275890337</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.02417154427941</v>
+        <v>1.040538224082929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047653844480379</v>
+        <v>1.031569523555057</v>
       </c>
       <c r="J7">
-        <v>1.021780926385332</v>
+        <v>1.028669067760033</v>
       </c>
       <c r="K7">
-        <v>1.033395498827127</v>
+        <v>1.036193367362554</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.033983830303635</v>
+        <v>1.043010078250747</v>
       </c>
       <c r="N7">
-        <v>1.011322856511984</v>
+        <v>1.01363114774435</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9971061702482831</v>
+        <v>1.022957198712853</v>
       </c>
       <c r="D8">
-        <v>1.019387496523896</v>
+        <v>1.032811869445454</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.019091795124844</v>
+        <v>1.039406983182445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046189681963565</v>
+        <v>1.031380260273309</v>
       </c>
       <c r="J8">
-        <v>1.01879865067564</v>
+        <v>1.028019748589288</v>
       </c>
       <c r="K8">
-        <v>1.030311102744376</v>
+        <v>1.035552325793444</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.030019219802967</v>
+        <v>1.04212901413597</v>
       </c>
       <c r="N8">
-        <v>1.010340526634597</v>
+        <v>1.013417454754821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9872557520566375</v>
+        <v>1.02097669911972</v>
       </c>
       <c r="D9">
-        <v>1.011656287542063</v>
+        <v>1.031236708524069</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.009746262754389</v>
+        <v>1.037415137063201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043366043422965</v>
+        <v>1.03103190965279</v>
       </c>
       <c r="J9">
-        <v>1.013266710701601</v>
+        <v>1.026871697309547</v>
       </c>
       <c r="K9">
-        <v>1.024563038617587</v>
+        <v>1.034414903469186</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.022683168250402</v>
+        <v>1.040573105381932</v>
       </c>
       <c r="N9">
-        <v>1.008518499319948</v>
+        <v>1.013039572592106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9803616826668895</v>
+        <v>1.019657088472008</v>
       </c>
       <c r="D10">
-        <v>1.00624682303181</v>
+        <v>1.030184935775408</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.003225669096589</v>
+        <v>1.03608837966399</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041310546387135</v>
+        <v>1.030789746500634</v>
       </c>
       <c r="J10">
-        <v>1.009376724139508</v>
+        <v>1.026103795218602</v>
       </c>
       <c r="K10">
-        <v>1.020504197775558</v>
+        <v>1.033651440363727</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.017536926310159</v>
+        <v>1.039533662497976</v>
       </c>
       <c r="N10">
-        <v>1.007237423569649</v>
+        <v>1.012786780961461</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9772915831290454</v>
+        <v>1.019085869511543</v>
       </c>
       <c r="D11">
-        <v>1.003839047588591</v>
+        <v>1.029729132432412</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.000327298120082</v>
+        <v>1.0355141704471</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040377189498345</v>
+        <v>1.030682542613625</v>
       </c>
       <c r="J11">
-        <v>1.007640553145915</v>
+        <v>1.025770697603464</v>
       </c>
       <c r="K11">
-        <v>1.018688926439243</v>
+        <v>1.033319639883312</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.015243044716408</v>
+        <v>1.039083075988354</v>
       </c>
       <c r="N11">
-        <v>1.006665704977574</v>
+        <v>1.012677117662382</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9761377822467585</v>
+        <v>1.018873721785012</v>
       </c>
       <c r="D12">
-        <v>1.002934415741918</v>
+        <v>1.029559771514906</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9992389062813355</v>
+        <v>1.035300928122742</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040023784322509</v>
+        <v>1.030642370716227</v>
       </c>
       <c r="J12">
-        <v>1.006987529423004</v>
+        <v>1.025646882598992</v>
       </c>
       <c r="K12">
-        <v>1.01800561208773</v>
+        <v>1.033196213017574</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.014380702186115</v>
+        <v>1.038915634295688</v>
       </c>
       <c r="N12">
-        <v>1.006450673632186</v>
+        <v>1.012636353718266</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9763858954260212</v>
+        <v>1.018919226886617</v>
       </c>
       <c r="D13">
-        <v>1.003128934858262</v>
+        <v>1.029596102480932</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9994729136380812</v>
+        <v>1.035346667282947</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040099898282913</v>
+        <v>1.030651003622375</v>
       </c>
       <c r="J13">
-        <v>1.007127979170326</v>
+        <v>1.025673445290211</v>
       </c>
       <c r="K13">
-        <v>1.018152600589318</v>
+        <v>1.033222696687187</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.014566150882441</v>
+        <v>1.038951554423579</v>
       </c>
       <c r="N13">
-        <v>1.006496921320816</v>
+        <v>1.012645099079459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.977196487579764</v>
+        <v>1.01906833272735</v>
       </c>
       <c r="D14">
-        <v>1.003764482757983</v>
+        <v>1.02971513412395</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.000237575514307</v>
+        <v>1.035496542851801</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040348115147612</v>
+        <v>1.03067922915996</v>
       </c>
       <c r="J14">
-        <v>1.007586742026662</v>
+        <v>1.025760464799884</v>
       </c>
       <c r="K14">
-        <v>1.018632630095117</v>
+        <v>1.033309441073073</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.015171975880643</v>
+        <v>1.039069236702952</v>
       </c>
       <c r="N14">
-        <v>1.006647985570194</v>
+        <v>1.012673748714221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9776941198250003</v>
+        <v>1.01916020556024</v>
       </c>
       <c r="D15">
-        <v>1.004154689213657</v>
+        <v>1.029788466174261</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.000707127122546</v>
+        <v>1.035588892088314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040500153518121</v>
+        <v>1.030696573278746</v>
       </c>
       <c r="J15">
-        <v>1.007868312369552</v>
+        <v>1.025814068799882</v>
       </c>
       <c r="K15">
-        <v>1.01892718273128</v>
+        <v>1.03336286315395</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.01554386685295</v>
+        <v>1.039141734903247</v>
       </c>
       <c r="N15">
-        <v>1.006740703924803</v>
+        <v>1.012691396720483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9805635896386593</v>
+        <v>1.019695002313475</v>
       </c>
       <c r="D16">
-        <v>1.00640520305137</v>
+        <v>1.030215178102236</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.003416399736101</v>
+        <v>1.036126494194923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041371560253705</v>
+        <v>1.030796811918468</v>
       </c>
       <c r="J16">
-        <v>1.009490827524583</v>
+        <v>1.026125889450715</v>
       </c>
       <c r="K16">
-        <v>1.02062342384341</v>
+        <v>1.033673435360662</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.017687745536267</v>
+        <v>1.039563556011707</v>
       </c>
       <c r="N16">
-        <v>1.007274998754373</v>
+        <v>1.012794054710701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9823403368479798</v>
+        <v>1.02003051554559</v>
       </c>
       <c r="D17">
-        <v>1.007799065169841</v>
+        <v>1.030482742972693</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.005095419674138</v>
+        <v>1.036463795397445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041906432353439</v>
+        <v>1.030859061544422</v>
       </c>
       <c r="J17">
-        <v>1.01049448323164</v>
+        <v>1.026321328847339</v>
       </c>
       <c r="K17">
-        <v>1.021671716552559</v>
+        <v>1.033867924474243</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.019014693703155</v>
+        <v>1.039828020175554</v>
       </c>
       <c r="N17">
-        <v>1.007605516505294</v>
+        <v>1.012858395303802</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9833685373344735</v>
+        <v>1.020226232135527</v>
       </c>
       <c r="D18">
-        <v>1.008605798742667</v>
+        <v>1.030638772375838</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.006067575013805</v>
+        <v>1.036660564917639</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042214249864291</v>
+        <v>1.030895144323732</v>
       </c>
       <c r="J18">
-        <v>1.011074927552266</v>
+        <v>1.026435268252477</v>
       </c>
       <c r="K18">
-        <v>1.022277620089952</v>
+        <v>1.033981249279659</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.019782389726314</v>
+        <v>1.039982229223287</v>
       </c>
       <c r="N18">
-        <v>1.007796669401856</v>
+        <v>1.012895904486319</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9837177650364495</v>
+        <v>1.020292969349011</v>
       </c>
       <c r="D19">
-        <v>1.008879821444334</v>
+        <v>1.030691968101817</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.006397851768622</v>
+        <v>1.036727662842143</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042318507411395</v>
+        <v>1.030907409197382</v>
       </c>
       <c r="J19">
-        <v>1.011272011221936</v>
+        <v>1.026474108929556</v>
       </c>
       <c r="K19">
-        <v>1.022483287155929</v>
+        <v>1.034019870156775</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.020043100408904</v>
+        <v>1.040034802265508</v>
       </c>
       <c r="N19">
-        <v>1.007861574061146</v>
+        <v>1.01290869081314</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9821505559790344</v>
+        <v>1.019994516342678</v>
       </c>
       <c r="D20">
-        <v>1.007650169920911</v>
+        <v>1.030454039574147</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.004916024157983</v>
+        <v>1.036427603320829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041849477831608</v>
+        <v>1.030852406157784</v>
       </c>
       <c r="J20">
-        <v>1.010387317130576</v>
+        <v>1.026300365946896</v>
       </c>
       <c r="K20">
-        <v>1.021559821054612</v>
+        <v>1.033847069767311</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.018872978514965</v>
+        <v>1.039799650671896</v>
       </c>
       <c r="N20">
-        <v>1.007570224743405</v>
+        <v>1.012851494191427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9769581647224793</v>
+        <v>1.019024423979127</v>
       </c>
       <c r="D21">
-        <v>1.003577617153266</v>
+        <v>1.029680083784152</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.000012732230017</v>
+        <v>1.035452406989412</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04027520856892</v>
+        <v>1.030670927142098</v>
       </c>
       <c r="J21">
-        <v>1.007451875250923</v>
+        <v>1.025734842136154</v>
       </c>
       <c r="K21">
-        <v>1.018491526003692</v>
+        <v>1.033283902010566</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.014993863399631</v>
+        <v>1.039034584230475</v>
       </c>
       <c r="N21">
-        <v>1.006603575569625</v>
+        <v>1.01266531293918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9736154387588384</v>
+        <v>1.018414653485722</v>
       </c>
       <c r="D22">
-        <v>1.000957341006121</v>
+        <v>1.029193148145298</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9968612206760518</v>
+        <v>1.034839520889395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039246439573762</v>
+        <v>1.030554790224374</v>
       </c>
       <c r="J22">
-        <v>1.005559001833911</v>
+        <v>1.025378767877658</v>
       </c>
       <c r="K22">
-        <v>1.016509856610546</v>
+        <v>1.032928767230177</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.012495114896174</v>
+        <v>1.038553130318212</v>
       </c>
       <c r="N22">
-        <v>1.005980296730627</v>
+        <v>1.012548079356194</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753951166673364</v>
+        <v>1.01873788831022</v>
       </c>
       <c r="D23">
-        <v>1.002352214197933</v>
+        <v>1.029451311621974</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9985385951009262</v>
+        <v>1.035164398350718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039795575820353</v>
+        <v>1.030616549120589</v>
       </c>
       <c r="J23">
-        <v>1.006567052240505</v>
+        <v>1.025567577282791</v>
       </c>
       <c r="K23">
-        <v>1.017565482071498</v>
+        <v>1.033117129889919</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.013825574214913</v>
+        <v>1.038808398070047</v>
       </c>
       <c r="N23">
-        <v>1.006312219041789</v>
+        <v>1.012610243472466</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9822363349097636</v>
+        <v>1.02001078277924</v>
       </c>
       <c r="D24">
-        <v>1.00771746865784</v>
+        <v>1.03046700951786</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.004997107444624</v>
+        <v>1.036443956877767</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04187522598232</v>
+        <v>1.030855414140053</v>
       </c>
       <c r="J24">
-        <v>1.010435756215225</v>
+        <v>1.026309838355756</v>
       </c>
       <c r="K24">
-        <v>1.02161039893188</v>
+        <v>1.033856493474567</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.018937032915176</v>
+        <v>1.039812469779204</v>
       </c>
       <c r="N24">
-        <v>1.007586176608116</v>
+        <v>1.012854612567638</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9898576460693923</v>
+        <v>1.021488583985937</v>
       </c>
       <c r="D25">
-        <v>1.013698438708401</v>
+        <v>1.031644226254298</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.012211530051103</v>
+        <v>1.037929883479147</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044125807999908</v>
+        <v>1.031123720487791</v>
       </c>
       <c r="J25">
-        <v>1.014731229171808</v>
+        <v>1.027168947628348</v>
       </c>
       <c r="K25">
-        <v>1.026087761705402</v>
+        <v>1.034709873485362</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.024623189902207</v>
+        <v>1.040975734154395</v>
       </c>
       <c r="N25">
-        <v>1.009000838910554</v>
+        <v>1.013137419208912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022667776422923</v>
+        <v>0.9957026490755444</v>
       </c>
       <c r="D2">
-        <v>1.032581945477635</v>
+        <v>1.018286053330325</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.039115856583574</v>
+        <v>1.0177581656606</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031330526671931</v>
+        <v>1.045796534167642</v>
       </c>
       <c r="J2">
-        <v>1.027852322274696</v>
+        <v>1.018012657317253</v>
       </c>
       <c r="K2">
-        <v>1.035386761362304</v>
+        <v>1.029496379552227</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.041901960711133</v>
+        <v>1.028975522833862</v>
       </c>
       <c r="N2">
-        <v>1.013362350471271</v>
+        <v>1.010081635696464</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02352424478629</v>
+        <v>0.9998211545810161</v>
       </c>
       <c r="D3">
-        <v>1.033262072007751</v>
+        <v>1.021517782971029</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.039977413955828</v>
+        <v>1.021673498127661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031476498206074</v>
+        <v>1.046940621512368</v>
       </c>
       <c r="J3">
-        <v>1.028347421440468</v>
+        <v>1.020316696290602</v>
       </c>
       <c r="K3">
-        <v>1.035876034291458</v>
+        <v>1.031882548079236</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.042573534941571</v>
+        <v>1.03203637413767</v>
       </c>
       <c r="N3">
-        <v>1.013525295867261</v>
+        <v>1.010840550158447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024078554996472</v>
+        <v>1.002431101613586</v>
       </c>
       <c r="D4">
-        <v>1.033701806534017</v>
+        <v>1.023565036581486</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.040535090966167</v>
+        <v>1.024157697906649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031569008283956</v>
+        <v>1.047649928942431</v>
       </c>
       <c r="J4">
-        <v>1.02866727219305</v>
+        <v>1.021772823343605</v>
       </c>
       <c r="K4">
-        <v>1.036191597054664</v>
+        <v>1.033387134099962</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.043007640725988</v>
+        <v>1.03397304801701</v>
       </c>
       <c r="N4">
-        <v>1.0136305568504</v>
+        <v>1.011320187411684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02431161392079</v>
+        <v>1.003515584090037</v>
       </c>
       <c r="D5">
-        <v>1.033886584744381</v>
+        <v>1.024415480873693</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.040769582560537</v>
+        <v>1.025190614133594</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031607433417288</v>
+        <v>1.047940832156067</v>
       </c>
       <c r="J5">
-        <v>1.028801613859652</v>
+        <v>1.022376887876843</v>
       </c>
       <c r="K5">
-        <v>1.036324011800248</v>
+        <v>1.034010455499258</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.043190030096137</v>
+        <v>1.034777003470957</v>
       </c>
       <c r="N5">
-        <v>1.013674766146051</v>
+        <v>1.011519163652626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024350747079497</v>
+        <v>1.003696938497199</v>
       </c>
       <c r="D6">
-        <v>1.033917604714873</v>
+        <v>1.024557682919389</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.040808957271178</v>
+        <v>1.025363384449494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031613857807952</v>
+        <v>1.047989252277334</v>
       </c>
       <c r="J6">
-        <v>1.028824163136199</v>
+        <v>1.022477844847551</v>
       </c>
       <c r="K6">
-        <v>1.036346230245317</v>
+        <v>1.034114580552881</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.043220647654871</v>
+        <v>1.034911399804003</v>
       </c>
       <c r="N6">
-        <v>1.013682186582415</v>
+        <v>1.011552418530733</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024081669037139</v>
+        <v>1.002445642025635</v>
       </c>
       <c r="D7">
-        <v>1.033704275890337</v>
+        <v>1.023576440051314</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.040538224082929</v>
+        <v>1.02417154427941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031569523555057</v>
+        <v>1.047653844480379</v>
       </c>
       <c r="J7">
-        <v>1.028669067760033</v>
+        <v>1.021780926385332</v>
       </c>
       <c r="K7">
-        <v>1.036193367362554</v>
+        <v>1.033395498827127</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.043010078250747</v>
+        <v>1.033983830303635</v>
       </c>
       <c r="N7">
-        <v>1.01363114774435</v>
+        <v>1.011322856511984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022957198712853</v>
+        <v>0.9971061702482836</v>
       </c>
       <c r="D8">
-        <v>1.032811869445454</v>
+        <v>1.019387496523896</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.039406983182445</v>
+        <v>1.019091795124845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031380260273309</v>
+        <v>1.046189681963566</v>
       </c>
       <c r="J8">
-        <v>1.028019748589288</v>
+        <v>1.01879865067564</v>
       </c>
       <c r="K8">
-        <v>1.035552325793444</v>
+        <v>1.030311102744377</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04212901413597</v>
+        <v>1.030019219802967</v>
       </c>
       <c r="N8">
-        <v>1.013417454754821</v>
+        <v>1.010340526634597</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02097669911972</v>
+        <v>0.9872557520566377</v>
       </c>
       <c r="D9">
-        <v>1.031236708524069</v>
+        <v>1.011656287542064</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.037415137063201</v>
+        <v>1.009746262754389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03103190965279</v>
+        <v>1.043366043422965</v>
       </c>
       <c r="J9">
-        <v>1.026871697309547</v>
+        <v>1.013266710701601</v>
       </c>
       <c r="K9">
-        <v>1.034414903469186</v>
+        <v>1.024563038617587</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.040573105381932</v>
+        <v>1.022683168250402</v>
       </c>
       <c r="N9">
-        <v>1.013039572592106</v>
+        <v>1.008518499319948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019657088472008</v>
+        <v>0.9803616826668895</v>
       </c>
       <c r="D10">
-        <v>1.030184935775408</v>
+        <v>1.006246823031811</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.03608837966399</v>
+        <v>1.003225669096589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030789746500634</v>
+        <v>1.041310546387135</v>
       </c>
       <c r="J10">
-        <v>1.026103795218602</v>
+        <v>1.009376724139509</v>
       </c>
       <c r="K10">
-        <v>1.033651440363727</v>
+        <v>1.020504197775558</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.039533662497976</v>
+        <v>1.017536926310159</v>
       </c>
       <c r="N10">
-        <v>1.012786780961461</v>
+        <v>1.007237423569649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019085869511543</v>
+        <v>0.9772915831290445</v>
       </c>
       <c r="D11">
-        <v>1.029729132432412</v>
+        <v>1.00383904758859</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.0355141704471</v>
+        <v>1.000327298120082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030682542613625</v>
+        <v>1.040377189498344</v>
       </c>
       <c r="J11">
-        <v>1.025770697603464</v>
+        <v>1.007640553145914</v>
       </c>
       <c r="K11">
-        <v>1.033319639883312</v>
+        <v>1.018688926439242</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.039083075988354</v>
+        <v>1.015243044716407</v>
       </c>
       <c r="N11">
-        <v>1.012677117662382</v>
+        <v>1.006665704977574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018873721785012</v>
+        <v>0.9761377822467588</v>
       </c>
       <c r="D12">
-        <v>1.029559771514906</v>
+        <v>1.002934415741918</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.035300928122742</v>
+        <v>0.9992389062813359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030642370716227</v>
+        <v>1.040023784322509</v>
       </c>
       <c r="J12">
-        <v>1.025646882598992</v>
+        <v>1.006987529423004</v>
       </c>
       <c r="K12">
-        <v>1.033196213017574</v>
+        <v>1.01800561208773</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.038915634295688</v>
+        <v>1.014380702186116</v>
       </c>
       <c r="N12">
-        <v>1.012636353718266</v>
+        <v>1.006450673632186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018919226886617</v>
+        <v>0.9763858954260207</v>
       </c>
       <c r="D13">
-        <v>1.029596102480932</v>
+        <v>1.003128934858262</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.035346667282947</v>
+        <v>0.9994729136380806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030651003622375</v>
+        <v>1.040099898282912</v>
       </c>
       <c r="J13">
-        <v>1.025673445290211</v>
+        <v>1.007127979170325</v>
       </c>
       <c r="K13">
-        <v>1.033222696687187</v>
+        <v>1.018152600589318</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.038951554423579</v>
+        <v>1.01456615088244</v>
       </c>
       <c r="N13">
-        <v>1.012645099079459</v>
+        <v>1.006496921320816</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01906833272735</v>
+        <v>0.9771964875797637</v>
       </c>
       <c r="D14">
-        <v>1.02971513412395</v>
+        <v>1.003764482757983</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.035496542851801</v>
+        <v>1.000237575514307</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03067922915996</v>
+        <v>1.040348115147611</v>
       </c>
       <c r="J14">
-        <v>1.025760464799884</v>
+        <v>1.007586742026662</v>
       </c>
       <c r="K14">
-        <v>1.033309441073073</v>
+        <v>1.018632630095117</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.039069236702952</v>
+        <v>1.015171975880643</v>
       </c>
       <c r="N14">
-        <v>1.012673748714221</v>
+        <v>1.006647985570193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01916020556024</v>
+        <v>0.977694119825</v>
       </c>
       <c r="D15">
-        <v>1.029788466174261</v>
+        <v>1.004154689213657</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.035588892088314</v>
+        <v>1.000707127122546</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030696573278746</v>
+        <v>1.040500153518121</v>
       </c>
       <c r="J15">
-        <v>1.025814068799882</v>
+        <v>1.007868312369551</v>
       </c>
       <c r="K15">
-        <v>1.03336286315395</v>
+        <v>1.01892718273128</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.039141734903247</v>
+        <v>1.01554386685295</v>
       </c>
       <c r="N15">
-        <v>1.012691396720483</v>
+        <v>1.006740703924803</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019695002313475</v>
+        <v>0.9805635896386588</v>
       </c>
       <c r="D16">
-        <v>1.030215178102236</v>
+        <v>1.00640520305137</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.036126494194923</v>
+        <v>1.003416399736101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030796811918468</v>
+        <v>1.041371560253705</v>
       </c>
       <c r="J16">
-        <v>1.026125889450715</v>
+        <v>1.009490827524583</v>
       </c>
       <c r="K16">
-        <v>1.033673435360662</v>
+        <v>1.02062342384341</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.039563556011707</v>
+        <v>1.017687745536266</v>
       </c>
       <c r="N16">
-        <v>1.012794054710701</v>
+        <v>1.007274998754373</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02003051554559</v>
+        <v>0.9823403368479798</v>
       </c>
       <c r="D17">
-        <v>1.030482742972693</v>
+        <v>1.007799065169841</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.036463795397445</v>
+        <v>1.005095419674138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030859061544422</v>
+        <v>1.041906432353439</v>
       </c>
       <c r="J17">
-        <v>1.026321328847339</v>
+        <v>1.01049448323164</v>
       </c>
       <c r="K17">
-        <v>1.033867924474243</v>
+        <v>1.021671716552559</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.039828020175554</v>
+        <v>1.019014693703155</v>
       </c>
       <c r="N17">
-        <v>1.012858395303802</v>
+        <v>1.007605516505294</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020226232135527</v>
+        <v>0.9833685373344734</v>
       </c>
       <c r="D18">
-        <v>1.030638772375838</v>
+        <v>1.008605798742667</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.036660564917639</v>
+        <v>1.006067575013805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030895144323732</v>
+        <v>1.042214249864291</v>
       </c>
       <c r="J18">
-        <v>1.026435268252477</v>
+        <v>1.011074927552266</v>
       </c>
       <c r="K18">
-        <v>1.033981249279659</v>
+        <v>1.022277620089952</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.039982229223287</v>
+        <v>1.019782389726315</v>
       </c>
       <c r="N18">
-        <v>1.012895904486319</v>
+        <v>1.007796669401856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020292969349011</v>
+        <v>0.9837177650364499</v>
       </c>
       <c r="D19">
-        <v>1.030691968101817</v>
+        <v>1.008879821444335</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.036727662842143</v>
+        <v>1.006397851768622</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030907409197382</v>
+        <v>1.042318507411395</v>
       </c>
       <c r="J19">
-        <v>1.026474108929556</v>
+        <v>1.011272011221936</v>
       </c>
       <c r="K19">
-        <v>1.034019870156775</v>
+        <v>1.022483287155929</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.040034802265508</v>
+        <v>1.020043100408904</v>
       </c>
       <c r="N19">
-        <v>1.01290869081314</v>
+        <v>1.007861574061147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019994516342678</v>
+        <v>0.9821505559790337</v>
       </c>
       <c r="D20">
-        <v>1.030454039574147</v>
+        <v>1.00765016992091</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.036427603320829</v>
+        <v>1.004916024157982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030852406157784</v>
+        <v>1.041849477831608</v>
       </c>
       <c r="J20">
-        <v>1.026300365946896</v>
+        <v>1.010387317130575</v>
       </c>
       <c r="K20">
-        <v>1.033847069767311</v>
+        <v>1.021559821054612</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.039799650671896</v>
+        <v>1.018872978514964</v>
       </c>
       <c r="N20">
-        <v>1.012851494191427</v>
+        <v>1.007570224743405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019024423979127</v>
+        <v>0.97695816472248</v>
       </c>
       <c r="D21">
-        <v>1.029680083784152</v>
+        <v>1.003577617153266</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.035452406989412</v>
+        <v>1.000012732230017</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030670927142098</v>
+        <v>1.04027520856892</v>
       </c>
       <c r="J21">
-        <v>1.025734842136154</v>
+        <v>1.007451875250923</v>
       </c>
       <c r="K21">
-        <v>1.033283902010566</v>
+        <v>1.018491526003693</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.039034584230475</v>
+        <v>1.014993863399631</v>
       </c>
       <c r="N21">
-        <v>1.01266531293918</v>
+        <v>1.006603575569625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018414653485722</v>
+        <v>0.9736154387588387</v>
       </c>
       <c r="D22">
-        <v>1.029193148145298</v>
+        <v>1.000957341006121</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.034839520889395</v>
+        <v>0.9968612206760524</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030554790224374</v>
+        <v>1.039246439573762</v>
       </c>
       <c r="J22">
-        <v>1.025378767877658</v>
+        <v>1.005559001833911</v>
       </c>
       <c r="K22">
-        <v>1.032928767230177</v>
+        <v>1.016509856610546</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.038553130318212</v>
+        <v>1.012495114896175</v>
       </c>
       <c r="N22">
-        <v>1.012548079356194</v>
+        <v>1.005980296730627</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01873788831022</v>
+        <v>0.9753951166673378</v>
       </c>
       <c r="D23">
-        <v>1.029451311621974</v>
+        <v>1.002352214197934</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.035164398350718</v>
+        <v>0.9985385951009276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030616549120589</v>
+        <v>1.039795575820354</v>
       </c>
       <c r="J23">
-        <v>1.025567577282791</v>
+        <v>1.006567052240507</v>
       </c>
       <c r="K23">
-        <v>1.033117129889919</v>
+        <v>1.017565482071499</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.038808398070047</v>
+        <v>1.013825574214914</v>
       </c>
       <c r="N23">
-        <v>1.012610243472466</v>
+        <v>1.006312219041789</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02001078277924</v>
+        <v>0.9822363349097633</v>
       </c>
       <c r="D24">
-        <v>1.03046700951786</v>
+        <v>1.007717468657839</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.036443956877767</v>
+        <v>1.004997107444624</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030855414140053</v>
+        <v>1.04187522598232</v>
       </c>
       <c r="J24">
-        <v>1.026309838355756</v>
+        <v>1.010435756215224</v>
       </c>
       <c r="K24">
-        <v>1.033856493474567</v>
+        <v>1.02161039893188</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.039812469779204</v>
+        <v>1.018937032915176</v>
       </c>
       <c r="N24">
-        <v>1.012854612567638</v>
+        <v>1.007586176608116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021488583985937</v>
+        <v>0.9898576460693921</v>
       </c>
       <c r="D25">
-        <v>1.031644226254298</v>
+        <v>1.013698438708401</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.037929883479147</v>
+        <v>1.012211530051102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031123720487791</v>
+        <v>1.044125807999908</v>
       </c>
       <c r="J25">
-        <v>1.027168947628348</v>
+        <v>1.014731229171807</v>
       </c>
       <c r="K25">
-        <v>1.034709873485362</v>
+        <v>1.026087761705401</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.040975734154395</v>
+        <v>1.024623189902207</v>
       </c>
       <c r="N25">
-        <v>1.013137419208912</v>
+        <v>1.009000838910554</v>
       </c>
     </row>
   </sheetData>
